--- a/initDB.xlsx
+++ b/initDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcarlo/Development/posgreSQL/noleggi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FF93904-69A8-A24C-BDA0-821D9AEA438A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5096062E-12E0-FD45-A642-4E0022B75DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="880" windowWidth="46560" windowHeight="20140" xr2:uid="{8026AD81-F910-2B4F-BD8B-BFA4556EFCD8}"/>
+    <workbookView xWindow="1120" yWindow="880" windowWidth="39000" windowHeight="20140" activeTab="6" xr2:uid="{8026AD81-F910-2B4F-BD8B-BFA4556EFCD8}"/>
   </bookViews>
   <sheets>
     <sheet name="DDL" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="139">
   <si>
     <t>TARGA</t>
   </si>
@@ -315,21 +315,6 @@
     <t>NOLEGGI</t>
   </si>
   <si>
-    <t>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, PREZZO_VENDITA) VALUES ('DD 566 MN', 'BMW', 'SERIE 1', 'Berlina', 'BMW 120d diesel nera', '2019-01-10', '35000', '20000');</t>
-  </si>
-  <si>
-    <t>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, PREZZO_VENDITA) VALUES ('CD 123 KK', 'BMW', 'X3', 'SUV', 'X3 M 118i benzina bianca', '2021-05-03', '43000', '25000');</t>
-  </si>
-  <si>
-    <t>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, PREZZO_VENDITA) VALUES ('AA 356 OO', 'BMW', 'SERIE 1', 'Berlina', 'BMW 120d benzina nera', '2018-12-06', '56000', '30000');</t>
-  </si>
-  <si>
-    <t>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, PREZZO_VENDITA) VALUES ('DD 555 JJ', 'AUDI', 'A1', 'Berlina', 'A1 1.6 benzina nera', '2018-06-15', '32000', '16000');</t>
-  </si>
-  <si>
-    <t>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, PREZZO_VENDITA) VALUES ('GF 667 HJ', 'AUDI', 'Q3', 'SUV', 'Q3 2.0 TDB verde scuso', '2020-01-21', '47000', '21000');</t>
-  </si>
-  <si>
     <t>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('AA 356 OO', '2019-01-06', '2019-01-08', 'Primo Tagliando', '400', 'Autosud s.r.l Roma');</t>
   </si>
   <si>
@@ -457,6 +442,24 @@
   </si>
   <si>
     <t>select count(*) from noleggi;</t>
+  </si>
+  <si>
+    <t>DATA_VENDITA</t>
+  </si>
+  <si>
+    <t>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, DATA_VENDITA, PREZZO_VENDITA) VALUES ('DD 566 MN', 'BMW', 'SERIE 1', 'Berlina', 'BMW 120d diesel nera', '2019-01-10', '2021-01-10', '35000', '20000');</t>
+  </si>
+  <si>
+    <t>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, DATA_VENDITA, PREZZO_VENDITA) VALUES ('CD 123 KK', 'BMW', 'X3', 'SUV', 'X3 M 118i benzina bianca', '2021-05-03', '2023-05-03', '43000', '25000');</t>
+  </si>
+  <si>
+    <t>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, DATA_VENDITA, PREZZO_VENDITA) VALUES ('AA 356 OO', 'BMW', 'SERIE 1', 'Berlina', 'BMW 120d benzina nera', '2018-12-06', '2020-12-06', '56000', '30000');</t>
+  </si>
+  <si>
+    <t>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, DATA_VENDITA, PREZZO_VENDITA) VALUES ('DD 555 JJ', 'AUDI', 'A1', 'Berlina', 'A1 1.6 benzina nera', '2018-06-15', '2020-06-15', '32000', '16000');</t>
+  </si>
+  <si>
+    <t>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, DATA_VENDITA, PREZZO_VENDITA) VALUES ('GF 667 HJ', 'AUDI', 'Q3', 'SUV', 'Q3 2.0 TDB verde scuso', '2020-01-21', '2022-01-21', '47000', '21000');</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +526,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +550,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -552,6 +561,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -890,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A332F8-5C20-D34B-91A7-7A421CCB5F06}">
   <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,24 +911,24 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="str">
-        <f>_xlfn.VALUETOTEXT(veicoli!K1)</f>
-        <v>CREATE TABLE VEICOLI(TARGA VARCHAR(255), MARCA VARCHAR(255), MODELLO VARCHAR(255), TIPOLOGIA VARCHAR(255), DESCRIZIONE VARCHAR(255), DATA_ACQUISTO DATE, PREZZO_ACQUISTO VARCHAR(255), PREZZO_VENDITA VARCHAR(255));</v>
+        <f>_xlfn.VALUETOTEXT(veicoli!L1)</f>
+        <v>CREATE TABLE VEICOLI(TARGA VARCHAR(255), MARCA VARCHAR(255), MODELLO VARCHAR(255), TIPOLOGIA VARCHAR(255), DESCRIZIONE VARCHAR(255), DATA_ACQUISTO DATE, PREZZO_ACQUISTO INTEGER, DATA_VENDITA DATE, PREZZO_VENDITA INTEGER);</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="str">
         <f>_xlfn.VALUETOTEXT(manutenzioni!J1)</f>
-        <v>CREATE TABLE MANUTENZIONI(TARGA VARCHAR(255), DATA_INIZIO DATE, DATA_FINE DATE, DESCRIZIONE VARCHAR(255), COSTO VARCHAR(255), OFFICINA VARCHAR(255));</v>
+        <v>CREATE TABLE MANUTENZIONI(TARGA VARCHAR(255), DATA_INIZIO DATE, DATA_FINE DATE, DESCRIZIONE VARCHAR(255), COSTO INTEGER, OFFICINA VARCHAR(255));</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -936,13 +946,13 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="str">
         <f>_xlfn.VALUETOTEXT(tariffe!J1)</f>
-        <v>CREATE TABLE TARIFFE(ID_TARIFFA VARCHAR(255), MODELLO_VEICOLO VARCHAR(255), UNITA_DI_TEMPO VARCHAR(255), NUMERO_UNITA VARCHAR(255), COSTO VARCHAR(255), PERCENTUALE_CREDITO VARCHAR(255));</v>
+        <v>CREATE TABLE TARIFFE(ID_TARIFFA VARCHAR(255), MODELLO_VEICOLO VARCHAR(255), UNITA_DI_TEMPO VARCHAR(255), NUMERO_UNITA VARCHAR(255), COSTO INTEGER, PERCENTUALE_CREDITO REAL);</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="str">
         <f>_xlfn.VALUETOTEXT(fedelta!G1)</f>
-        <v xml:space="preserve">CREATE TABLE FEDELTA(LIVELLO VARCHAR(255), SPESA_GIORNALIERA VARCHAR(255), CASHBACK VARCHAR(255)); </v>
+        <v xml:space="preserve">CREATE TABLE FEDELTA(LIVELLO VARCHAR(255), SPESA_GIORNALIERA INTEGER, CASHBACK REAL); </v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -952,233 +962,233 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>90</v>
+      <c r="A10" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>91</v>
+      <c r="A11" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>92</v>
+      <c r="A12" s="10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>93</v>
+      <c r="A13" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>94</v>
+      <c r="A14" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1189,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1489DA-6537-E147-B60E-682C58F7CB6D}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1204,13 +1214,14 @@
     <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1233,17 +1244,20 @@
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="7" t="str">
-        <f>CONCATENATE("CREATE TABLE ",$J$1,"(",$A$1," VARCHAR(255), ",$B$1," VARCHAR(255), ",$C$1," VARCHAR(255), ",$D$1," VARCHAR(255), ",$E$1," VARCHAR(255), ",$F$1," DATE, ",$G$1," VARCHAR(255), ",$H$1," VARCHAR(255));")</f>
-        <v>CREATE TABLE VEICOLI(TARGA VARCHAR(255), MARCA VARCHAR(255), MODELLO VARCHAR(255), TIPOLOGIA VARCHAR(255), DESCRIZIONE VARCHAR(255), DATA_ACQUISTO DATE, PREZZO_ACQUISTO VARCHAR(255), PREZZO_VENDITA VARCHAR(255));</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="7" t="str">
+        <f>CONCATENATE("CREATE TABLE ",$K$1,"(",$A$1," VARCHAR(255), ",$B$1," VARCHAR(255), ",$C$1," VARCHAR(255), ",$D$1," VARCHAR(255), ",$E$1," VARCHAR(255), ",$F$1," DATE, ",$G$1," INTEGER, ",$H$1," DATE, ",$I$1," INTEGER);")</f>
+        <v>CREATE TABLE VEICOLI(TARGA VARCHAR(255), MARCA VARCHAR(255), MODELLO VARCHAR(255), TIPOLOGIA VARCHAR(255), DESCRIZIONE VARCHAR(255), DATA_ACQUISTO DATE, PREZZO_ACQUISTO INTEGER, DATA_VENDITA DATE, PREZZO_VENDITA INTEGER);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1265,15 +1279,18 @@
       <c r="G2">
         <v>35000</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
+        <v>44206</v>
+      </c>
+      <c r="I2">
         <v>20000</v>
       </c>
-      <c r="J2" t="str">
-        <f>CONCATENATE("INSERT INTO ",$J$1,"(",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,") VALUES ('",A2,"', '", B2,"', '", C2,"', '", D2,"', '", E2,"', '", TEXT(F2,"yyyy-mm-dd"),"', '", G2,"', '", H2,"');")</f>
-        <v>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, PREZZO_VENDITA) VALUES ('DD 566 MN', 'BMW', 'SERIE 1', 'Berlina', 'BMW 120d diesel nera', '2019-01-10', '35000', '20000');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2" t="str">
+        <f>CONCATENATE("INSERT INTO ",$K$1,"(",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,") VALUES ('",A2,"', '", B2,"', '", C2,"', '", D2,"', '", E2,"', '", TEXT(F2,"yyyy-mm-dd"),"', ",G2,", '", TEXT(H2,"yyyy-mm-dd"),"', ", I2,");")</f>
+        <v>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, DATA_VENDITA, PREZZO_VENDITA) VALUES ('DD 566 MN', 'BMW', 'SERIE 1', 'Berlina', 'BMW 120d diesel nera', '2019-01-10', 35000, '2021-01-10', 20000);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1295,15 +1312,18 @@
       <c r="G3">
         <v>43000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
+        <v>45049</v>
+      </c>
+      <c r="I3">
         <v>25000</v>
       </c>
-      <c r="J3" t="str">
-        <f>CONCATENATE("INSERT INTO ",$J$1,"(",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,") VALUES ('",A3,"', '", B3,"', '", C3,"', '", D3,"', '", E3,"', '", TEXT(F3,"yyyy-mm-dd"),"', '", G3,"', '", H3,"');")</f>
-        <v>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, PREZZO_VENDITA) VALUES ('CD 123 KK', 'BMW', 'X3', 'SUV', 'X3 M 118i benzina bianca', '2021-05-03', '43000', '25000');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K3" t="str">
+        <f>CONCATENATE("INSERT INTO ",$K$1,"(",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,") VALUES ('",A3,"', '", B3,"', '", C3,"', '", D3,"', '", E3,"', '", TEXT(F3,"yyyy-mm-dd"),"', ",G3,", '", TEXT(H3,"yyyy-mm-dd"),"', ", I3,");")</f>
+        <v>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, DATA_VENDITA, PREZZO_VENDITA) VALUES ('CD 123 KK', 'BMW', 'X3', 'SUV', 'X3 M 118i benzina bianca', '2021-05-03', 43000, '2023-05-03', 25000);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1325,15 +1345,18 @@
       <c r="G4">
         <v>56000</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
+        <v>44171</v>
+      </c>
+      <c r="I4">
         <v>30000</v>
       </c>
-      <c r="J4" t="str">
-        <f>CONCATENATE("INSERT INTO ",$J$1,"(",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,") VALUES ('",A4,"', '", B4,"', '", C4,"', '", D4,"', '", E4,"', '", TEXT(F4,"yyyy-mm-dd"),"', '", G4,"', '", H4,"');")</f>
-        <v>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, PREZZO_VENDITA) VALUES ('AA 356 OO', 'BMW', 'SERIE 1', 'Berlina', 'BMW 120d benzina nera', '2018-12-06', '56000', '30000');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K6" si="0">CONCATENATE("INSERT INTO ",$K$1,"(",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,") VALUES ('",A4,"', '", B4,"', '", C4,"', '", D4,"', '", E4,"', '", TEXT(F4,"yyyy-mm-dd"),"', ",G4,", '", TEXT(H4,"yyyy-mm-dd"),"', ", I4,");")</f>
+        <v>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, DATA_VENDITA, PREZZO_VENDITA) VALUES ('AA 356 OO', 'BMW', 'SERIE 1', 'Berlina', 'BMW 120d benzina nera', '2018-12-06', 56000, '2020-12-06', 30000);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1355,15 +1378,18 @@
       <c r="G5">
         <v>32000</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
+        <v>43997</v>
+      </c>
+      <c r="I5">
         <v>16000</v>
       </c>
-      <c r="J5" t="str">
-        <f>CONCATENATE("INSERT INTO ",$J$1,"(",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,") VALUES ('",A5,"', '", B5,"', '", C5,"', '", D5,"', '", E5,"', '", TEXT(F5,"yyyy-mm-dd"),"', '", G5,"', '", H5,"');")</f>
-        <v>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, PREZZO_VENDITA) VALUES ('DD 555 JJ', 'AUDI', 'A1', 'Berlina', 'A1 1.6 benzina nera', '2018-06-15', '32000', '16000');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, DATA_VENDITA, PREZZO_VENDITA) VALUES ('DD 555 JJ', 'AUDI', 'A1', 'Berlina', 'A1 1.6 benzina nera', '2018-06-15', 32000, '2020-06-15', 16000);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1385,16 +1411,19 @@
       <c r="G6">
         <v>47000</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
+        <v>44582</v>
+      </c>
+      <c r="I6">
         <v>21000</v>
       </c>
-      <c r="J6" t="str">
-        <f>CONCATENATE("INSERT INTO ",$J$1,"(",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,") VALUES ('",A6,"', '", B6,"', '", C6,"', '", D6,"', '", E6,"', '", TEXT(F6,"yyyy-mm-dd"),"', '", G6,"', '", H6,"');")</f>
-        <v>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, PREZZO_VENDITA) VALUES ('GF 667 HJ', 'AUDI', 'Q3', 'SUV', 'Q3 2.0 TDB verde scuso', '2020-01-21', '47000', '21000');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J13" s="1"/>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO VEICOLI(TARGA, MARCA, MODELLO, TIPOLOGIA, DESCRIZIONE, DATA_ACQUISTO, PREZZO_ACQUISTO, DATA_VENDITA, PREZZO_VENDITA) VALUES ('GF 667 HJ', 'AUDI', 'Q3', 'SUV', 'Q3 2.0 TDB verde scuso', '2020-01-21', 47000, '2022-01-21', 21000);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1444,8 +1473,8 @@
         <v>84</v>
       </c>
       <c r="J1" s="7" t="str">
-        <f>CONCATENATE("CREATE TABLE ",$H$1,"(",$A$1," VARCHAR(255), ",$B$1," DATE, ",$C$1," DATE, ",$D$1," VARCHAR(255), ",$E$1," VARCHAR(255), ",$F$1," VARCHAR(255));")</f>
-        <v>CREATE TABLE MANUTENZIONI(TARGA VARCHAR(255), DATA_INIZIO DATE, DATA_FINE DATE, DESCRIZIONE VARCHAR(255), COSTO VARCHAR(255), OFFICINA VARCHAR(255));</v>
+        <f>CONCATENATE("CREATE TABLE ",$H$1,"(",$A$1," VARCHAR(255), ",$B$1," DATE, ",$C$1," DATE, ",$D$1," VARCHAR(255), ",$E$1," INTEGER, ",$F$1," VARCHAR(255));")</f>
+        <v>CREATE TABLE MANUTENZIONI(TARGA VARCHAR(255), DATA_INIZIO DATE, DATA_FINE DATE, DESCRIZIONE VARCHAR(255), COSTO INTEGER, OFFICINA VARCHAR(255));</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1468,8 +1497,8 @@
         <v>52</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H10" si="0">CONCATENATE("INSERT INTO ",$H$1,"(",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,") VALUES ('", A2,"', '", TEXT(B2,"yyyy-mm-dd"),"', '", TEXT(C2,"yyyy-mm-dd"),"', '", D2,"', '", E2,"', '", F2,"');")</f>
-        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('AA 356 OO', '2019-01-06', '2019-01-08', 'Primo Tagliando', '400', 'Autosud s.r.l Roma');</v>
+        <f>CONCATENATE("INSERT INTO ",$H$1,"(",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,") VALUES ('", A2,"', '", TEXT(B2,"yyyy-mm-dd"),"', '", TEXT(C2,"yyyy-mm-dd"),"', '", D2,"', ", E2,", '", F2,"');")</f>
+        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('AA 356 OO', '2019-01-06', '2019-01-08', 'Primo Tagliando', 400, 'Autosud s.r.l Roma');</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1492,8 +1521,8 @@
         <v>53</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('AA 356 OO', '2020-04-11', '2020-04-15', 'Carrozzeria anteriore', '1500', 'CarPoint s.p.a. Tivoli');</v>
+        <f t="shared" ref="H3:H10" si="0">CONCATENATE("INSERT INTO ",$H$1,"(",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,") VALUES ('", A3,"', '", TEXT(B3,"yyyy-mm-dd"),"', '", TEXT(C3,"yyyy-mm-dd"),"', '", D3,"', ", E3,", '", F3,"');")</f>
+        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('AA 356 OO', '2020-04-11', '2020-04-15', 'Carrozzeria anteriore', 1500, 'CarPoint s.p.a. Tivoli');</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1517,7 +1546,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('CD 123 KK', '2022-12-10', '2022-12-13', 'Primo Tagliando', '450', 'Autosud s.r.l Roma');</v>
+        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('CD 123 KK', '2022-12-10', '2022-12-13', 'Primo Tagliando', 450, 'Autosud s.r.l Roma');</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1541,7 +1570,7 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('DD 555 JJ', '2018-09-15', '2018-09-19', 'Primo Tagliando', '350', 'Autosud s.r.l Roma');</v>
+        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('DD 555 JJ', '2018-09-15', '2018-09-19', 'Primo Tagliando', 350, 'Autosud s.r.l Roma');</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1565,7 +1594,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('DD 555 JJ', '2021-03-03', '2021-03-08', 'Sostituzione motore  avviamento', '340', 'CarPoint s.p.a. Tivoli');</v>
+        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('DD 555 JJ', '2021-03-03', '2021-03-08', 'Sostituzione motore  avviamento', 340, 'CarPoint s.p.a. Tivoli');</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1589,7 +1618,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('DD 555 JJ', '2023-01-11', '2023-01-15', 'Carrozzeria laterale sx', '1200', 'CarPoint s.p.a. Tivoli');</v>
+        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('DD 555 JJ', '2023-01-11', '2023-01-15', 'Carrozzeria laterale sx', 1200, 'CarPoint s.p.a. Tivoli');</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1613,7 +1642,7 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('DD 566 MN', '2020-02-15', '2020-02-18', 'Primo Tagliando', '550', 'Autosud s.r.l Roma');</v>
+        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('DD 566 MN', '2020-02-15', '2020-02-18', 'Primo Tagliando', 550, 'Autosud s.r.l Roma');</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1637,7 +1666,7 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('DD 566 MN', '2022-04-21', '2022-04-21', 'Riparazione aria condizionata', '250', 'Autosud s.r.l Roma');</v>
+        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('DD 566 MN', '2022-04-21', '2022-04-21', 'Riparazione aria condizionata', 250, 'Autosud s.r.l Roma');</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1661,7 +1690,7 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('GF 667 HJ', '2020-11-14', '2020-11-17', 'Primo Tagliando', '400', 'CarPoint s.p.a. Tivoli');</v>
+        <v>INSERT INTO MANUTENZIONI(TARGA, DATA_INIZIO, DATA_FINE, DESCRIZIONE, COSTO, OFFICINA) VALUES ('GF 667 HJ', '2020-11-14', '2020-11-17', 'Primo Tagliando', 400, 'CarPoint s.p.a. Tivoli');</v>
       </c>
     </row>
   </sheetData>
@@ -1901,8 +1930,8 @@
         <v>87</v>
       </c>
       <c r="J1" s="7" t="str">
-        <f>CONCATENATE("CREATE TABLE ",$H$1,"(",$A$1," VARCHAR(255), ",$B$1," VARCHAR(255), ",$C$1," VARCHAR(255), ",$D$1," VARCHAR(255), ",$E$1," VARCHAR(255), ",$F$1," VARCHAR(255));")</f>
-        <v>CREATE TABLE TARIFFE(ID_TARIFFA VARCHAR(255), MODELLO_VEICOLO VARCHAR(255), UNITA_DI_TEMPO VARCHAR(255), NUMERO_UNITA VARCHAR(255), COSTO VARCHAR(255), PERCENTUALE_CREDITO VARCHAR(255));</v>
+        <f>CONCATENATE("CREATE TABLE ",$H$1,"(",$A$1," VARCHAR(255), ",$B$1," VARCHAR(255), ",$C$1," VARCHAR(255), ",$D$1," VARCHAR(255), ",$E$1," INTEGER, ",$F$1," REAL);")</f>
+        <v>CREATE TABLE TARIFFE(ID_TARIFFA VARCHAR(255), MODELLO_VEICOLO VARCHAR(255), UNITA_DI_TEMPO VARCHAR(255), NUMERO_UNITA VARCHAR(255), COSTO INTEGER, PERCENTUALE_CREDITO REAL);</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1925,8 +1954,8 @@
         <v>0.04</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE("INSERT INTO ",$H$1,"(",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,") VALUES ('", A2,"', '", B2,"', '", C2,"', '", D2,"', '", E2,"', '", F2,"');")</f>
-        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('BREVE', 'SERIE 1', 'GIORNO', '1', '100', '0,04');</v>
+        <f>CONCATENATE("INSERT INTO ",$H$1,"(",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,") VALUES ('", A2,"', '", B2,"', '", C2,"', '", D2,"', ", E2,", ", F2,");")</f>
+        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('BREVE', 'SERIE 1', 'GIORNO', '1', 100, 0,04);</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1949,8 +1978,8 @@
         <v>0.03</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H13" si="0">CONCATENATE("INSERT INTO ",$H$1,"(",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,") VALUES ('", A3,"', '", B3,"', '", C3,"', '", D3,"', '", E3,"', '", F3,"');")</f>
-        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('MEDIO', 'SERIE 1', 'SETTIMANA', '1', '490', '0,03');</v>
+        <f t="shared" ref="H3:H13" si="0">CONCATENATE("INSERT INTO ",$H$1,"(",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,") VALUES ('", A3,"', '", B3,"', '", C3,"', '", D3,"', ", E3,", ", F3,");")</f>
+        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('MEDIO', 'SERIE 1', 'SETTIMANA', '1', 490, 0,03);</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1974,7 +2003,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('LUNGO', 'SERIE 1', 'SETTIMANA', '4', '1500', '0,03');</v>
+        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('LUNGO', 'SERIE 1', 'SETTIMANA', '4', 1500, 0,03);</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1998,7 +2027,7 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('BREVE', 'X3', 'GIORNO', '1', '200', '0,08');</v>
+        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('BREVE', 'X3', 'GIORNO', '1', 200, 0,08);</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2022,7 +2051,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('MEDIO', 'X3', 'SETTIMANA', '1', '800', '0,06');</v>
+        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('MEDIO', 'X3', 'SETTIMANA', '1', 800, 0,06);</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2046,7 +2075,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('LUNGO', 'X3', 'SETTIMANA', '4', '2500', '0,06');</v>
+        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('LUNGO', 'X3', 'SETTIMANA', '4', 2500, 0,06);</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2070,7 +2099,7 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('BREVE', 'A1', 'GIORNO', '1', '90', '0,08');</v>
+        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('BREVE', 'A1', 'GIORNO', '1', 90, 0,08);</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2094,7 +2123,7 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('MEDIO', 'A1', 'SETTIMANA', '1', '450', '0,06');</v>
+        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('MEDIO', 'A1', 'SETTIMANA', '1', 450, 0,06);</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2118,7 +2147,7 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('LUNGO', 'A1', 'SETTIMANA', '4', '1300', '0,06');</v>
+        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('LUNGO', 'A1', 'SETTIMANA', '4', 1300, 0,06);</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2142,7 +2171,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('BREVE', 'Q3', 'GIORNO', '1', '200', '0,1');</v>
+        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('BREVE', 'Q3', 'GIORNO', '1', 200, 0,1);</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2166,7 +2195,7 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('MEDIO', 'Q3', 'SETTIMANA', '1', '800', '0,09');</v>
+        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('MEDIO', 'Q3', 'SETTIMANA', '1', 800, 0,09);</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2190,11 +2219,12 @@
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('LUNGO', 'Q3', 'SETTIMANA', '4', '2500', '0,09');</v>
+        <v>INSERT INTO TARIFFE(ID_TARIFFA, MODELLO_VEICOLO, UNITA_DI_TEMPO, NUMERO_UNITA, COSTO, PERCENTUALE_CREDITO) VALUES ('LUNGO', 'Q3', 'SETTIMANA', '4', 2500, 0,09);</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2202,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CB2651-C55A-AF45-AE71-6CE772A22F7F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2227,8 +2257,8 @@
         <v>88</v>
       </c>
       <c r="G1" s="7" t="str">
-        <f>CONCATENATE("CREATE TABLE ",$E$1,"(",$A$1," VARCHAR(255), ",$B$1," VARCHAR(255), ",$C$1," VARCHAR(255)); ")</f>
-        <v xml:space="preserve">CREATE TABLE FEDELTA(LIVELLO VARCHAR(255), SPESA_GIORNALIERA VARCHAR(255), CASHBACK VARCHAR(255)); </v>
+        <f>CONCATENATE("CREATE TABLE ",$E$1,"(",$A$1," VARCHAR(255), ",$B$1," INTEGER, ",$C$1," REAL); ")</f>
+        <v xml:space="preserve">CREATE TABLE FEDELTA(LIVELLO VARCHAR(255), SPESA_GIORNALIERA INTEGER, CASHBACK REAL); </v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2242,8 +2272,8 @@
         <v>0.1</v>
       </c>
       <c r="E2" t="str">
-        <f>CONCATENATE("INSERT INTO ",$E$1,"(",$A$1,", ",$B$1,", ",$C$1,") VALUES ('", A2,"', '", B2,"', '", C2,"');")</f>
-        <v>INSERT INTO FEDELTA(LIVELLO, SPESA_GIORNALIERA, CASHBACK) VALUES ('FIDELITY1', '80', '0,1');</v>
+        <f>CONCATENATE("INSERT INTO ",$E$1,"(",$A$1,", ",$B$1,", ",$C$1,") VALUES ('", A2,"', ", B2,", ", C2,");")</f>
+        <v>INSERT INTO FEDELTA(LIVELLO, SPESA_GIORNALIERA, CASHBACK) VALUES ('FIDELITY1', 80, 0,1);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2257,8 +2287,8 @@
         <v>0.4</v>
       </c>
       <c r="E3" t="str">
-        <f>CONCATENATE("INSERT INTO ",$E$1,"(",$A$1,", ",$B$1,", ",$C$1,") VALUES ('", A3,"', '", B3,"', '", C3,"');")</f>
-        <v>INSERT INTO FEDELTA(LIVELLO, SPESA_GIORNALIERA, CASHBACK) VALUES ('FIDELITY2', '100', '0,4');</v>
+        <f t="shared" ref="E3:E4" si="0">CONCATENATE("INSERT INTO ",$E$1,"(",$A$1,", ",$B$1,", ",$C$1,") VALUES ('", A3,"', ", B3,", ", C3,");")</f>
+        <v>INSERT INTO FEDELTA(LIVELLO, SPESA_GIORNALIERA, CASHBACK) VALUES ('FIDELITY2', 100, 0,4);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2272,12 +2302,13 @@
         <v>0.5</v>
       </c>
       <c r="E4" t="str">
-        <f>CONCATENATE("INSERT INTO ",$E$1,"(",$A$1,", ",$B$1,", ",$C$1,") VALUES ('", A4,"', '", B4,"', '", C4,"');")</f>
-        <v>INSERT INTO FEDELTA(LIVELLO, SPESA_GIORNALIERA, CASHBACK) VALUES ('GOLD3', '130', '0,5');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO FEDELTA(LIVELLO, SPESA_GIORNALIERA, CASHBACK) VALUES ('GOLD3', 130, 0,5);</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
